--- a/src/main/resources/出货对账单模板.xlsx
+++ b/src/main/resources/出货对账单模板.xlsx
@@ -10,6 +10,7 @@
     <sheet name="对账单" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对账单!$A$7:$G$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$G$64</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -113,11 +114,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -191,6 +192,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -199,30 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,22 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -260,9 +271,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,14 +287,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,37 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,91 +356,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,79 +518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,31 +658,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,16 +697,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +722,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -749,148 +750,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,17 +1317,17 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="12.6428571428571" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6428571428571" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.6428571428571" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.6428571428571" style="3" customWidth="1"/>
     <col min="5" max="6" width="6.64285714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6428571428571" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6428571428571" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="25.125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.625" style="3"/>
@@ -1968,6 +1969,9 @@
       <c r="G64" s="28"/>
     </row>
   </sheetData>
+  <autoFilter ref="A7:G8">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="14">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>

--- a/src/main/resources/出货对账单模板.xlsx
+++ b/src/main/resources/出货对账单模板.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="对账单" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对账单!$A$7:$G$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$G$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对账单!$A$7:$H$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$H$64</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TO：财务</t>
   </si>
@@ -62,6 +62,9 @@
     <t>金额</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>{.odd}</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>{.money}</t>
+  </si>
+  <si>
+    <t>{.remark}</t>
   </si>
   <si>
     <t>共{total}单，货款合计：{sumpay}元)</t>
@@ -115,10 +121,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -178,15 +184,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,6 +214,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -208,16 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -232,14 +321,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -247,81 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -350,187 +356,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +658,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,30 +697,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -711,6 +717,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -721,57 +751,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,122 +786,122 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,8 +974,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1315,10 +1327,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" customHeight="1"/>
@@ -1327,13 +1339,13 @@
     <col min="3" max="3" width="20.6428571428571" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.6428571428571" style="3" customWidth="1"/>
     <col min="5" max="6" width="6.64285714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6428571428571" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.625" style="3"/>
+    <col min="7" max="8" width="12.6428571428571" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.125" style="3" customWidth="1"/>
+    <col min="11" max="16383" width="9.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:7">
+    <row r="1" ht="22.5" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1343,8 +1355,9 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:7">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1354,8 +1367,9 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:7">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1365,8 +1379,9 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1376,8 +1391,9 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="24" customHeight="1" spans="1:7">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1387,8 +1403,9 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="24.95" customHeight="1" spans="1:7">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" ht="24.95" customHeight="1" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1399,9 +1416,10 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
+      <c r="G6" s="24"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -1423,493 +1441,550 @@
       <c r="G7" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
+      <c r="H7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
+      <c r="G8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:7">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:7">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:7">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:7">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:7">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:7">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:7">
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:7">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:7">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:7">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:7">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:7">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:7">
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:7">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:7">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:7">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:7">
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:7">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:7">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:7">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:7">
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:7">
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:7">
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="14"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:7">
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="14"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:7">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="14"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:7">
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:7">
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="24"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:7">
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="14"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:7">
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="14"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:7">
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="14"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:7">
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="14"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:7">
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:7">
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:7">
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="14"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
       <c r="A59" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="25"/>
-      <c r="I59" s="29"/>
-    </row>
-    <row r="60" ht="50" customHeight="1" spans="1:7">
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" ht="50" customHeight="1" spans="1:8">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -1917,74 +1992,79 @@
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
-    </row>
-    <row r="61" ht="20" customHeight="1" spans="1:7">
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" ht="20" customHeight="1" spans="1:8">
       <c r="A61" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="20" customHeight="1" spans="1:7">
+      <c r="G61" s="20"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
       <c r="A62" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
-    </row>
-    <row r="63" ht="20" customHeight="1" spans="1:7">
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:8">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
-    </row>
-    <row r="64" ht="20" customHeight="1" spans="1:7">
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G8">
+  <autoFilter ref="A7:H8">
     <extLst/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
     <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="A62:C63"/>
   </mergeCells>

--- a/src/main/resources/出货对账单模板.xlsx
+++ b/src/main/resources/出货对账单模板.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12200"/>
+    <workbookView windowWidth="27900" windowHeight="12260"/>
   </bookViews>
   <sheets>
     <sheet name="对账单" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对账单!$A$7:$H$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$H$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$H$79</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -119,11 +119,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -184,6 +184,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -193,14 +207,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -214,57 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -274,31 +277,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,24 +299,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -356,187 +356,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +663,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -686,222 +751,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +950,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -968,21 +971,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -995,7 +989,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" customHeight="1"/>
@@ -1416,7 +1410,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
@@ -1464,10 +1458,10 @@
       <c r="F8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1478,8 +1472,8 @@
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="14"/>
@@ -1488,8 +1482,8 @@
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="14"/>
@@ -1498,8 +1492,8 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="14"/>
@@ -1508,8 +1502,8 @@
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="14"/>
@@ -1518,8 +1512,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="14"/>
@@ -1528,8 +1522,8 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="14"/>
@@ -1538,8 +1532,8 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="14"/>
@@ -1548,8 +1542,8 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="14"/>
@@ -1558,8 +1552,8 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="14"/>
@@ -1568,8 +1562,8 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="14"/>
@@ -1578,8 +1572,8 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="14"/>
@@ -1588,8 +1582,8 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="14"/>
@@ -1598,8 +1592,8 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="14"/>
@@ -1608,8 +1602,8 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="14"/>
@@ -1618,8 +1612,8 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="14"/>
@@ -1628,8 +1622,8 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="14"/>
@@ -1638,8 +1632,8 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="14"/>
@@ -1648,8 +1642,8 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="14"/>
@@ -1658,8 +1652,8 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="14"/>
@@ -1668,8 +1662,8 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="14"/>
@@ -1678,8 +1672,8 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="14"/>
@@ -1688,8 +1682,8 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="14"/>
@@ -1698,8 +1692,8 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="14"/>
@@ -1708,8 +1702,8 @@
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="14"/>
@@ -1718,8 +1712,8 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="14"/>
@@ -1728,8 +1722,8 @@
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="14"/>
@@ -1738,8 +1732,8 @@
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="14"/>
@@ -1748,8 +1742,8 @@
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="14"/>
@@ -1758,8 +1752,8 @@
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="14"/>
@@ -1768,8 +1762,8 @@
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="14"/>
@@ -1778,8 +1772,8 @@
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="14"/>
@@ -1788,8 +1782,8 @@
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="14"/>
@@ -1798,8 +1792,8 @@
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="14"/>
@@ -1808,8 +1802,8 @@
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="14"/>
@@ -1818,8 +1812,8 @@
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="14"/>
@@ -1828,8 +1822,8 @@
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="14"/>
@@ -1838,8 +1832,8 @@
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="14"/>
@@ -1848,8 +1842,8 @@
       <c r="D46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="14"/>
@@ -1858,8 +1852,8 @@
       <c r="D47" s="14"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="14"/>
@@ -1868,8 +1862,8 @@
       <c r="D48" s="14"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="14"/>
@@ -1878,8 +1872,8 @@
       <c r="D49" s="14"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="14"/>
@@ -1888,8 +1882,8 @@
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="14"/>
@@ -1898,8 +1892,8 @@
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="14"/>
@@ -1908,8 +1902,8 @@
       <c r="D52" s="14"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="14"/>
@@ -1918,8 +1912,8 @@
       <c r="D53" s="14"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="14"/>
@@ -1928,8 +1922,8 @@
       <c r="D54" s="14"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="14"/>
@@ -1938,8 +1932,8 @@
       <c r="D55" s="14"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="14"/>
@@ -1948,8 +1942,8 @@
       <c r="D56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="14"/>
@@ -1958,8 +1952,8 @@
       <c r="D57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="14"/>
@@ -1968,85 +1962,235 @@
       <c r="D58" s="14"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A59" s="16" t="s">
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:8">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:8">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27"/>
-      <c r="J59" s="31"/>
-    </row>
-    <row r="60" ht="50" customHeight="1" spans="1:8">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-    </row>
-    <row r="61" ht="20" customHeight="1" spans="1:8">
-      <c r="A61" s="20" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="25"/>
+      <c r="J74" s="29"/>
+    </row>
+    <row r="75" ht="50" customHeight="1" spans="1:8">
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" ht="20" customHeight="1" spans="1:8">
+      <c r="A76" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="28"/>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A62" s="21" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A77" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-    </row>
-    <row r="63" ht="20" customHeight="1" spans="1:8">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21" t="s">
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+    </row>
+    <row r="78" ht="20" customHeight="1" spans="1:8">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-    </row>
-    <row r="64" ht="20" customHeight="1" spans="1:8">
-      <c r="A64" s="1" t="s">
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+    </row>
+    <row r="79" ht="20" customHeight="1" spans="1:8">
+      <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B79" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23" t="s">
+      <c r="C79" s="24"/>
+      <c r="D79" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:H8">
@@ -2060,13 +2204,13 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="A77:C78"/>
   </mergeCells>
   <pageMargins left="0.55" right="0.393055555555556" top="0.0777777777777778" bottom="1" header="0.471527777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/出货对账单模板.xlsx
+++ b/src/main/resources/出货对账单模板.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12260"/>
+    <workbookView windowWidth="27900" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="对账单" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对账单!$A$7:$H$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$H$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$H$114</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -119,11 +119,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -192,6 +192,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -206,8 +213,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -222,15 +285,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,97 +334,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -374,97 +374,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,67 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,23 +657,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,26 +722,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -751,153 +736,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,7 +971,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,7 +989,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" customHeight="1"/>
@@ -2115,82 +2115,432 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A74" s="17" t="s">
+    <row r="74" customHeight="1" spans="1:8">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:8">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:8">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:8">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:8">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:8">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:8">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:8">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:8">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:8">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:8">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:8">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:8">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:8">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:8">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:8">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:8">
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:8">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:8">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:8">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:8">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:8">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:8">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:8">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:8">
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:8">
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:8">
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="14"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:8">
+      <c r="A107" s="14"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A109" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="25"/>
-      <c r="J74" s="29"/>
-    </row>
-    <row r="75" ht="50" customHeight="1" spans="1:8">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" ht="20" customHeight="1" spans="1:8">
-      <c r="A76" s="21" t="s">
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="25"/>
+      <c r="J109" s="29"/>
+    </row>
+    <row r="110" ht="50" customHeight="1" spans="1:8">
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" ht="20" customHeight="1" spans="1:8">
+      <c r="A111" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="26"/>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A77" s="22" t="s">
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="26"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A112" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22" t="s">
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-    </row>
-    <row r="78" ht="20" customHeight="1" spans="1:8">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22" t="s">
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+    </row>
+    <row r="113" ht="20" customHeight="1" spans="1:8">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-    </row>
-    <row r="79" ht="20" customHeight="1" spans="1:8">
-      <c r="A79" s="1" t="s">
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+    </row>
+    <row r="114" ht="20" customHeight="1" spans="1:8">
+      <c r="A114" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B114" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24" t="s">
+      <c r="C114" s="24"/>
+      <c r="D114" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:H8">
@@ -2204,13 +2554,13 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="A77:C78"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="A112:C113"/>
   </mergeCells>
   <pageMargins left="0.55" right="0.393055555555556" top="0.0777777777777778" bottom="1" header="0.471527777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/出货对账单模板.xlsx
+++ b/src/main/resources/出货对账单模板.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12440"/>
+    <workbookView windowWidth="27100" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="对账单" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对账单!$A$7:$H$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$H$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">对账单!$A$1:$H$164</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -121,10 +121,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -185,14 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,7 +206,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -214,15 +214,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -231,7 +223,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,6 +237,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -253,9 +260,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,14 +299,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,7 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -307,29 +321,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -356,25 +356,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,157 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,26 +667,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -707,6 +687,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,6 +713,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,168 +751,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A103" sqref="$A103:$XFD152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" customHeight="1"/>
@@ -2465,82 +2465,582 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A109" s="17" t="s">
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:8">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:8">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:8">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="14"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:8">
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:8">
+      <c r="A119" s="14"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:8">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:8">
+      <c r="A122" s="14"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:8">
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124" s="14"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125" s="14"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="14"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:8">
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:8">
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:8">
+      <c r="A131" s="14"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:8">
+      <c r="A132" s="14"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133" s="14"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" customHeight="1" spans="1:8">
+      <c r="A134" s="14"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="135" customHeight="1" spans="1:8">
+      <c r="A135" s="14"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:8">
+      <c r="A136" s="14"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="14"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="14"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="14"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+    </row>
+    <row r="140" customHeight="1" spans="1:8">
+      <c r="A140" s="14"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" customHeight="1" spans="1:8">
+      <c r="A141" s="14"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142" s="14"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143" s="14"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="144" customHeight="1" spans="1:8">
+      <c r="A144" s="14"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:8">
+      <c r="A145" s="14"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:8">
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+    </row>
+    <row r="147" customHeight="1" spans="1:8">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:8">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:8">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+    </row>
+    <row r="150" customHeight="1" spans="1:8">
+      <c r="A150" s="14"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:8">
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:8">
+      <c r="A152" s="14"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:8">
+      <c r="A153" s="14"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:8">
+      <c r="A154" s="14"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:8">
+      <c r="A155" s="14"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:8">
+      <c r="A156" s="14"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:8">
+      <c r="A157" s="14"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:8">
+      <c r="A158" s="14"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A159" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="25"/>
-      <c r="J109" s="29"/>
-    </row>
-    <row r="110" ht="50" customHeight="1" spans="1:8">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-    </row>
-    <row r="111" ht="20" customHeight="1" spans="1:8">
-      <c r="A111" s="21" t="s">
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="25"/>
+      <c r="J159" s="29"/>
+    </row>
+    <row r="160" ht="50" customHeight="1" spans="1:8">
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+    </row>
+    <row r="161" ht="20" customHeight="1" spans="1:8">
+      <c r="A161" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="26"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A112" s="22" t="s">
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="26"/>
+    </row>
+    <row r="162" s="2" customFormat="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A162" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22" t="s">
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-    </row>
-    <row r="113" ht="20" customHeight="1" spans="1:8">
-      <c r="A113" s="22"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22" t="s">
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
+    </row>
+    <row r="163" ht="20" customHeight="1" spans="1:8">
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-    </row>
-    <row r="114" ht="20" customHeight="1" spans="1:8">
-      <c r="A114" s="1" t="s">
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
+    </row>
+    <row r="164" ht="20" customHeight="1" spans="1:8">
+      <c r="A164" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B164" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24" t="s">
+      <c r="C164" s="24"/>
+      <c r="D164" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="28"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:H8">
@@ -2554,13 +3054,13 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="A112:C113"/>
+    <mergeCell ref="A159:H159"/>
+    <mergeCell ref="A160:H160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="A162:C163"/>
   </mergeCells>
   <pageMargins left="0.55" right="0.393055555555556" top="0.0777777777777778" bottom="1" header="0.471527777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
